--- a/双周计划/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-张磊/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-徐沛华.xlsx
+++ b/双周计划/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-张磊/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="763"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="哗啦啦实施双周滚动计划" sheetId="4" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>分公司实施负责人： 张磊</t>
   </si>
   <si>
-    <t>填表人：鲁青鹏</t>
+    <t>填表人：徐沛华</t>
   </si>
   <si>
     <t>项目角色：实施工程师</t>
@@ -212,10 +212,10 @@
     <t>一、部门（个人）重点工作</t>
   </si>
   <si>
-    <t>去坛湘更换打印机，已完成</t>
-  </si>
-  <si>
-    <t>鲁青鹏</t>
+    <t>前往群湘汇更换机器。</t>
+  </si>
+  <si>
+    <t>徐沛华</t>
   </si>
   <si>
     <t>张磊</t>
@@ -224,19 +224,16 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>完成商户中心测试文档</t>
-  </si>
-  <si>
-    <t>去女人当家售后和培训</t>
-  </si>
-  <si>
-    <t>碰到一勺鲜打印机出现问题：打印机刚更换完成又无法工作，前去更换打印机之后回来进行维修，发现是打印机出纸键的问题（可能是油把出纸键泡坏了）更换完成之后打印机就可以正常进行工作</t>
-  </si>
-  <si>
-    <t>查看下发的各类文档，准备考核</t>
-  </si>
-  <si>
-    <t/>
+    <t>前往牛的故事调试电子秤并培训。</t>
+  </si>
+  <si>
+    <t>前往牛的故事火锅店调试电子秤并培训。</t>
+  </si>
+  <si>
+    <t>牛的故事火锅店驻店。</t>
+  </si>
+  <si>
+    <t>学习查看文档。</t>
   </si>
   <si>
     <t>二、团队建设</t>
@@ -252,10 +249,10 @@
     <t>上周其他工作</t>
   </si>
   <si>
-    <t>完成前端测试文档、商户中心测试文档、报表中心</t>
-  </si>
-  <si>
-    <t>熟背SaaS文档。</t>
+    <t>编写报表中心。</t>
+  </si>
+  <si>
+    <t>查看SaaS文档。</t>
   </si>
   <si>
     <t>上周未完成工作情况说明</t>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>分管领导强调任务</t>
+  </si>
+  <si>
+    <t>解决商户售后问题。</t>
   </si>
   <si>
     <t>参加部门考核。</t>
@@ -315,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -407,6 +407,89 @@
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -418,23 +501,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,15 +515,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,41 +546,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,57 +564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
@@ -616,241 +616,241 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,16 +1050,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,9 +1090,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,16 +1109,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,17 +1138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1161,6 +1152,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,13 +1169,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,422 +1187,422 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1953,10 +1953,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="126" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="126" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2413,8 +2409,8 @@
   </sheetPr>
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2722,7 +2718,7 @@
       </c>
       <c r="K14" s="77"/>
     </row>
-    <row r="15" ht="54" customHeight="1" spans="2:11">
+    <row r="15" ht="30.95" customHeight="1" spans="2:11">
       <c r="B15" s="23">
         <v>4</v>
       </c>
@@ -2786,13 +2782,11 @@
       <c r="H17" s="31"/>
       <c r="I17" s="81"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="94" t="s">
-        <v>32</v>
-      </c>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="2:11">
       <c r="B18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -2820,7 +2814,7 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:11">
       <c r="B20" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2853,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>21</v>
@@ -2934,7 +2928,7 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="2:11">
       <c r="B27" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2957,7 +2951,7 @@
         <v>43136</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="s">
@@ -2983,7 +2977,7 @@
         <v>43139</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="31" t="s">
@@ -3042,7 +3036,7 @@
     </row>
     <row r="33" ht="32.1" customHeight="1" spans="2:11">
       <c r="B33" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -3062,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>17</v>
@@ -3075,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="74"/>
@@ -3096,38 +3090,38 @@
     </row>
     <row r="36" ht="30" hidden="1" customHeight="1" spans="2:11">
       <c r="B36" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>43</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>44</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="86"/>
     </row>
     <row r="37" ht="27" hidden="1" customHeight="1" spans="2:11">
       <c r="B37" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46">
         <v>10</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="46">
         <v>1</v>
@@ -3143,14 +3137,14 @@
     </row>
     <row r="38" ht="27" hidden="1" customHeight="1" spans="2:11">
       <c r="B38" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46">
         <v>11</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="46">
         <v>0</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="39" ht="27" hidden="1" customHeight="1" spans="2:11">
       <c r="B39" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -3177,7 +3171,7 @@
     </row>
     <row r="40" ht="27" hidden="1" customHeight="1" spans="2:11">
       <c r="B40" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -3191,7 +3185,7 @@
     </row>
     <row r="41" ht="27" customHeight="1" spans="2:11">
       <c r="B41" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -3227,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42" s="74" t="s">
         <v>12</v>
@@ -3258,7 +3252,7 @@
         <v>43143</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="56"/>
       <c r="G44" s="27" t="s">
@@ -3273,12 +3267,22 @@
     </row>
     <row r="45" ht="33.75" customHeight="1" spans="2:11">
       <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="55"/>
+      <c r="C45" s="24">
+        <v>43141</v>
+      </c>
+      <c r="D45" s="24">
+        <v>43143</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>54</v>
+      </c>
       <c r="F45" s="56"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="I45" s="81"/>
       <c r="J45" s="15"/>
       <c r="K45" s="77"/>
@@ -3309,7 +3313,7 @@
     </row>
     <row r="48" ht="24" customHeight="1" spans="2:11">
       <c r="B48" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -3371,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K51" s="74" t="s">
         <v>12</v>
